--- a/Result.xlsx
+++ b/Result.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Codes\FIZ-RA\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54DCE951-C588-4FC9-AA3C-45885C8563AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="108" windowWidth="22980" windowHeight="9288" activeTab="1"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Андрёнов Руслан" sheetId="4" r:id="rId1"/>
@@ -18,13 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="10">
-  <si>
-    <t>Осень</t>
-  </si>
-  <si>
-    <t>Весна</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="15">
   <si>
     <t>Бег 100</t>
   </si>
@@ -48,16 +48,52 @@
   </si>
   <si>
     <t>прес</t>
+  </si>
+  <si>
+    <t>1 семестр</t>
+  </si>
+  <si>
+    <t>2 семестр</t>
+  </si>
+  <si>
+    <t>3 семестр</t>
+  </si>
+  <si>
+    <t>4 семестр</t>
+  </si>
+  <si>
+    <t>5 семестр</t>
+  </si>
+  <si>
+    <t>6 семестр</t>
+  </si>
+  <si>
+    <t>Бег 400</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -84,8 +120,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -96,14 +133,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -141,7 +181,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -213,7 +253,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -386,113 +426,146 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="7" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
-        <v>17.559999999999999</v>
-      </c>
-      <c r="C2">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3">
-        <v>19.07</v>
-      </c>
-      <c r="C3">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>210</v>
-      </c>
-      <c r="C4">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5">
-        <v>20</v>
-      </c>
-      <c r="C5">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>3</v>
-      </c>
-      <c r="C6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B7">
-        <v>9</v>
-      </c>
-      <c r="C7">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8">
-        <v>8.98</v>
-      </c>
-      <c r="C8">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9">
-        <v>30</v>
-      </c>
-      <c r="C9">
-        <v>41</v>
-      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -500,112 +573,76 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
-        <v>15.07</v>
-      </c>
-      <c r="C2">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>3</v>
       </c>
-      <c r="B3">
-        <v>14.18</v>
-      </c>
-      <c r="C3">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>228</v>
-      </c>
-      <c r="C4">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B5">
-        <v>30</v>
-      </c>
-      <c r="C5">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>15</v>
-      </c>
-      <c r="C6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>7</v>
-      </c>
-      <c r="B7">
-        <v>15</v>
-      </c>
-      <c r="C7">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8">
-        <v>-1</v>
-      </c>
-      <c r="C8">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9">
-        <v>48</v>
-      </c>
-      <c r="C9">
-        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -614,113 +651,111 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F2">
+        <v>18.59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="F3">
+        <v>15.08</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
-        <v>18.59</v>
-      </c>
-      <c r="C2">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="F4">
+        <v>161</v>
+      </c>
+      <c r="G4">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5">
         <v>3</v>
       </c>
-      <c r="B3">
-        <v>15.08</v>
-      </c>
-      <c r="C3">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>161</v>
-      </c>
-      <c r="C4">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="G5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7">
+        <v>10</v>
+      </c>
+      <c r="G7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="C5">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>-1</v>
-      </c>
-      <c r="C6">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="F8">
+        <v>9.2799999999999994</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="B7">
-        <v>10</v>
-      </c>
-      <c r="C7">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8">
-        <v>9.2799999999999994</v>
-      </c>
-      <c r="C8">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9">
+      <c r="F9">
         <v>35</v>
       </c>
-      <c r="C9">
+      <c r="G9">
         <v>35</v>
       </c>
     </row>
@@ -730,112 +765,124 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="H10" sqref="A1:H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.77734375" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F2">
+        <v>15.98</v>
+      </c>
+      <c r="G2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="F3">
+        <v>16.079999999999998</v>
+      </c>
+      <c r="G3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
-        <v>15.98</v>
-      </c>
-      <c r="C2">
+      <c r="F4">
+        <v>163</v>
+      </c>
+      <c r="G4">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5">
+        <v>40</v>
+      </c>
+      <c r="G5">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>10</v>
+      </c>
+      <c r="G6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7">
+        <v>15</v>
+      </c>
+      <c r="G7">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8">
+        <v>8.5500000000000007</v>
+      </c>
+      <c r="G8">
         <v>-1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3">
-        <v>16.079999999999998</v>
-      </c>
-      <c r="C3">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>163</v>
-      </c>
-      <c r="C4">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9">
         <v>40</v>
       </c>
-      <c r="C5">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>10</v>
-      </c>
-      <c r="C6">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7">
-        <v>15</v>
-      </c>
-      <c r="C7">
-        <v>10.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8">
-        <v>8.5500000000000007</v>
-      </c>
-      <c r="C8">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9">
-        <v>40</v>
-      </c>
-      <c r="C9">
+      <c r="G9">
         <v>40</v>
       </c>
     </row>
@@ -845,115 +892,225 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="A1:D10"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="7" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B2">
+        <v>16.64</v>
+      </c>
+      <c r="C2">
+        <v>17.420000000000002</v>
+      </c>
+      <c r="D2">
+        <v>15.97</v>
+      </c>
+      <c r="E2">
+        <v>17.579999999999998</v>
+      </c>
+      <c r="F2">
+        <v>16.239999999999998</v>
+      </c>
+      <c r="G2">
+        <v>16.989999999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2">
-        <v>16.239999999999998</v>
-      </c>
-      <c r="C2">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
       <c r="B3">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="C3">
+        <v>19.36</v>
+      </c>
+      <c r="D3">
+        <v>19.579999999999998</v>
+      </c>
+      <c r="E3">
+        <v>19.12</v>
+      </c>
+      <c r="F3">
         <v>19.3</v>
       </c>
-      <c r="C3">
+      <c r="G3">
         <v>19.25</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4">
-        <v>197</v>
+        <v>30</v>
       </c>
       <c r="C4">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+      <c r="D4">
+        <v>30</v>
+      </c>
+      <c r="E4">
+        <v>35</v>
+      </c>
+      <c r="F4">
+        <v>20</v>
+      </c>
+      <c r="G4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>7</v>
+      </c>
+      <c r="D5">
+        <v>8</v>
+      </c>
+      <c r="E5">
+        <v>7</v>
+      </c>
+      <c r="F5">
         <v>6</v>
       </c>
-      <c r="B5">
-        <v>20</v>
-      </c>
-      <c r="C5">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C6">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+      <c r="G6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
       <c r="B7">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="C7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+      <c r="D7">
+        <v>40</v>
+      </c>
+      <c r="E7">
+        <v>35</v>
+      </c>
+      <c r="F7">
+        <v>35</v>
+      </c>
+      <c r="G7">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8">
+        <v>14</v>
+      </c>
+      <c r="C8">
+        <v>1.29</v>
+      </c>
+      <c r="D8">
+        <v>1.31</v>
+      </c>
+      <c r="E8">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9">
         <v>8.09</v>
       </c>
-      <c r="C8">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9">
-        <v>35</v>
-      </c>
-      <c r="C9">
-        <v>38</v>
+      <c r="G9">
+        <v>8.4499999999999993</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10">
+        <v>375</v>
+      </c>
+      <c r="D10">
+        <v>197</v>
+      </c>
+      <c r="E10">
+        <v>180</v>
+      </c>
+      <c r="F10">
+        <v>197</v>
+      </c>
+      <c r="G10">
+        <v>198</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>